--- a/Bai Tap/phùng văn hinh 47 .xlsx
+++ b/Bai Tap/phùng văn hinh 47 .xlsx
@@ -18,19 +18,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
-    <t>đúng</t>
-  </si>
-  <si>
-    <t>sai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phung văn hinh </t>
-  </si>
-  <si>
     <t>cntt 08 - 01</t>
   </si>
   <si>
-    <t>bai 21</t>
+    <t>Sai</t>
+  </si>
+  <si>
+    <t>Đúng</t>
+  </si>
+  <si>
+    <t>Phùng Văn Hinh</t>
+  </si>
+  <si>
+    <t>Bài 21</t>
   </si>
 </sst>
 </file>
@@ -66,8 +66,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -134,7 +137,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>bắt</a:t>
+            <a:t>Bắt</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -196,7 +199,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>nhập</a:t>
+            <a:t>Nhập</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -210,16 +213,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:colOff>542926</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -228,8 +231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5572124" y="2143125"/>
-          <a:ext cx="1304925" cy="1066800"/>
+          <a:off x="5191126" y="2133600"/>
+          <a:ext cx="2057400" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -258,11 +261,11 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>n # 0 và</a:t>
+            <a:t>n != 0 và</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> m # 0</a:t>
+            <a:t> m != 0</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -275,13 +278,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -290,8 +293,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8610600" y="2409825"/>
-          <a:ext cx="1666875" cy="561975"/>
+          <a:off x="8610600" y="2305050"/>
+          <a:ext cx="1666875" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -332,13 +335,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -347,8 +350,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2171700" y="2390775"/>
-          <a:ext cx="1666875" cy="561975"/>
+          <a:off x="2171700" y="2295526"/>
+          <a:ext cx="1666875" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -393,14 +396,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -409,7 +412,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10829925" y="3314700"/>
+          <a:off x="10829925" y="3524250"/>
           <a:ext cx="1543050" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -448,25 +451,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19050" y="3295650"/>
+          <a:off x="8667750" y="3524250"/>
           <a:ext cx="1543050" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -496,8 +499,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>BCNN = m</a:t>
-          </a:r>
+            <a:t>m = m</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> - n</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -505,28 +513,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvPr id="13" name="Folded Corner 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2238375" y="3295650"/>
-          <a:ext cx="1543050" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
+          <a:off x="8829675" y="4619625"/>
+          <a:ext cx="1219200" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -553,68 +561,18 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>BCNN = n</a:t>
+            <a:t>BCNN = </a:t>
           </a:r>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8667750" y="3314700"/>
-          <a:ext cx="1543050" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>m = m</a:t>
+            <a:t>(</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> - n</a:t>
+            <a:t> n * m )/m</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -624,85 +582,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Folded Corner 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8829675" y="4457700"/>
-          <a:ext cx="1219200" cy="1438275"/>
-        </a:xfrm>
-        <a:prstGeom prst="foldedCorner">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>BCNN = </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> n * m )/m</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -711,7 +600,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10991850" y="4457700"/>
+          <a:off x="10991850" y="4610100"/>
           <a:ext cx="1219200" cy="1438275"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
@@ -819,9 +708,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
+      <xdr:colOff>123826</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -834,7 +723,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6219825" y="1609725"/>
-          <a:ext cx="4762" cy="533400"/>
+          <a:ext cx="1" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -862,79 +751,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>566738</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="11" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3005138" y="2952750"/>
-          <a:ext cx="4762" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>180976</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="30" name="Elbow Connector 29"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="8" idx="1"/>
-          <a:endCxn id="10" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="790576" y="2671762"/>
-          <a:ext cx="1381125" cy="623887"/>
+          <a:off x="971550" y="2667001"/>
+          <a:ext cx="1200150" cy="1343024"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -962,124 +800,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>45719</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Right Arrow 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6857999" y="2667000"/>
-          <a:ext cx="1762125" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>26668</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Right Arrow 31"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="3838575" y="2647949"/>
-          <a:ext cx="1724024" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>300038</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1091,8 +821,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9439275" y="2971800"/>
-          <a:ext cx="4763" cy="342900"/>
+          <a:off x="9439275" y="3019425"/>
+          <a:ext cx="4763" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1122,14 +852,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1141,8 +871,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10277475" y="2690813"/>
-          <a:ext cx="1323975" cy="623887"/>
+          <a:off x="10277475" y="2662238"/>
+          <a:ext cx="1323975" cy="862012"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1172,14 +902,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1191,8 +921,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9439275" y="3943350"/>
-          <a:ext cx="0" cy="514350"/>
+          <a:off x="9439275" y="4152900"/>
+          <a:ext cx="0" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1222,14 +952,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1241,8 +971,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11601450" y="3943350"/>
-          <a:ext cx="0" cy="514350"/>
+          <a:off x="11601450" y="4152900"/>
+          <a:ext cx="0" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1318,7 +1048,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>kết</a:t>
+            <a:t>Kết</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -1332,28 +1062,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Straight Arrow Connector 46"/>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="2"/>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="790575" y="3924300"/>
-          <a:ext cx="9525" cy="2762250"/>
+        <a:xfrm flipV="1">
+          <a:off x="7248526" y="2662238"/>
+          <a:ext cx="1362074" cy="4762"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1381,28 +1112,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Straight Arrow Connector 48"/>
+        <xdr:cNvPr id="52" name="Straight Arrow Connector 51"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="2"/>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="8" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3009900" y="3924300"/>
-          <a:ext cx="0" cy="2752725"/>
+        <a:xfrm flipH="1">
+          <a:off x="3838575" y="2667000"/>
+          <a:ext cx="1352551" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1430,28 +1162,97 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Folded Corner 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400300" y="4019551"/>
+          <a:ext cx="1219200" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BCNN = n</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>566738</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Straight Arrow Connector 50"/>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="2"/>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="56" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9439275" y="5895975"/>
-          <a:ext cx="0" cy="781050"/>
+          <a:off x="3005138" y="3038476"/>
+          <a:ext cx="4762" cy="981075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1479,75 +1280,102 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Folded Corner 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="4019551"/>
+          <a:ext cx="1219200" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BCNN = m</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>96610</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>17259</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Straight Connector 54"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="6657975"/>
-          <a:ext cx="10791825" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="Straight Arrow Connector 56"/>
+        <xdr:cNvPr id="61" name="Elbow Connector 60"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="2"/>
+          <a:stCxn id="56" idx="2"/>
+          <a:endCxn id="43" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11582400" y="5895975"/>
-          <a:ext cx="19050" cy="790575"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3044813" y="4718061"/>
+          <a:ext cx="2503284" cy="2573111"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76635"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -1572,30 +1400,133 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>157163</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="Straight Arrow Connector 62"/>
+        <xdr:cNvPr id="65" name="Elbow Connector 64"/>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="43" idx="0"/>
+          <a:stCxn id="60" idx="2"/>
+          <a:endCxn id="43" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6253163" y="6686550"/>
-          <a:ext cx="4762" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1774031" y="3950493"/>
+          <a:ext cx="2728913" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>17259</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Elbow Connector 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="43" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7582116" y="5399099"/>
+          <a:ext cx="1198359" cy="2515961"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Elbow Connector 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="43" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8684419" y="4564856"/>
+          <a:ext cx="1433513" cy="4400550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -1909,41 +1840,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>0</v>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
-      <c r="S14" t="s">
-        <v>0</v>
+      <c r="R14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="6:17" x14ac:dyDescent="0.25">
